--- a/Diagrama.xlsx
+++ b/Diagrama.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backendProyect\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -38,18 +38,12 @@
     <t>horario</t>
   </si>
   <si>
-    <t>restaurante</t>
-  </si>
-  <si>
     <t>contacto</t>
   </si>
   <si>
     <t>precio</t>
   </si>
   <si>
-    <t>imagen</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>informacion</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
     <t>Segundo</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>interfaz</t>
-  </si>
-  <si>
     <t>color1</t>
   </si>
   <si>
@@ -114,6 +99,24 @@
   </si>
   <si>
     <t>color3</t>
+  </si>
+  <si>
+    <t>turnos</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>restaurantes</t>
+  </si>
+  <si>
+    <t>info_restaurantes</t>
+  </si>
+  <si>
+    <t>control_managers</t>
   </si>
 </sst>
 </file>
@@ -137,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -356,19 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +417,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +711,7 @@
   <dimension ref="B5:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,71 +747,71 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="23"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28">
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="F9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="14"/>
+      <c r="C9" s="19"/>
+      <c r="F9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="40"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="L9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="37"/>
+      <c r="L9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
+      <c r="C10" s="19"/>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>21</v>
+      <c r="R10" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="L11" s="2"/>
@@ -814,15 +823,15 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>1</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>22</v>
+      <c r="K12" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -833,14 +842,14 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -850,12 +859,12 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="27" t="s">
-        <v>22</v>
+      <c r="K14" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -865,16 +874,16 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="K15" s="29"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="4"/>
@@ -882,176 +891,176 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="29"/>
+      <c r="S15" s="26"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="N16" s="26"/>
-      <c r="S16" s="32"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="N16" s="23"/>
+      <c r="S16" s="29"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="S17" s="32"/>
+      <c r="S17" s="29"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="S18" s="32"/>
+      <c r="S18" s="29"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="S19" s="32"/>
+      <c r="S19" s="29"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="14"/>
-      <c r="K20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
+      <c r="K20" s="19"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="S20" s="32"/>
+      <c r="S20" s="29"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="22"/>
+      <c r="I21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="19"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="S21" s="32"/>
+      <c r="S21" s="29"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="25" t="s">
-        <v>22</v>
+      <c r="C22" s="19"/>
+      <c r="D22" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="S22" s="32"/>
+      <c r="S22" s="29"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C23" s="22"/>
+      <c r="C23" s="19"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="30"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="27"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="Q23" s="35">
+      <c r="Q23" s="32">
         <v>1</v>
       </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="21"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="18"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="22"/>
+      <c r="C24" s="19"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="L24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="22"/>
+      <c r="L24" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="40"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="30"/>
       <c r="R24" s="1"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="22"/>
+      <c r="C25" s="19"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="31" t="s">
+      <c r="I25" s="38"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="22"/>
+      <c r="M25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="19"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="14"/>
+      <c r="P25" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="40"/>
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="22"/>
+      <c r="C26" s="19"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1061,115 +1070,115 @@
         <v>1</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>1</v>
+      <c r="Q26" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C27" s="22"/>
+      <c r="C27" s="19"/>
       <c r="L27" s="2">
         <v>2</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="N27" s="19"/>
       <c r="O27" s="7"/>
       <c r="P27" s="12">
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="22"/>
+      <c r="C28" s="19"/>
       <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="M28" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28" s="22"/>
+      <c r="M28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="19"/>
       <c r="O28" s="7"/>
       <c r="P28" s="12">
         <v>2</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="22"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="1"/>
       <c r="O29" s="7"/>
       <c r="P29" s="12">
         <v>3</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="21"/>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="37"/>
+      <c r="E31" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="34"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="40"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
@@ -1177,12 +1186,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="L33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="14"/>
+      <c r="L33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
@@ -1190,17 +1199,17 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>28</v>
+      <c r="M34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:20" x14ac:dyDescent="0.25">
@@ -1214,8 +1223,8 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="11"/>
     </row>
     <row r="36" spans="5:20" x14ac:dyDescent="0.25">

--- a/Diagrama.xlsx
+++ b/Diagrama.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backendProyect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zfda8\Desktop\Carta-Restaurante\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -117,12 +117,15 @@
   </si>
   <si>
     <t>control_managers</t>
+  </si>
+  <si>
+    <t>eslogan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,9 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -416,16 +416,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,36 +749,39 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
-      <c r="F9" s="39" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="1"/>
+      <c r="F9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="34"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="1"/>
       <c r="E10">
         <v>1</v>
       </c>
@@ -809,7 +814,8 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
       <c r="F11" s="4"/>
@@ -823,14 +829,15 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="19"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>1</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="2"/>
@@ -842,13 +849,14 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="19"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -859,11 +867,12 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="19"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="2"/>
@@ -879,11 +888,12 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="19"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="4"/>
@@ -891,181 +901,200 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="26"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="N16" s="23"/>
-      <c r="S16" s="29"/>
+      <c r="N16" s="22"/>
+      <c r="S16" s="28"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="19"/>
       <c r="K17" s="19"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="S17" s="29"/>
+      <c r="S17" s="28"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="19"/>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="19"/>
       <c r="K18" s="19"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="K19" s="19"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="39" t="s">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="40"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="K20" s="19"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="13" t="s">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="E21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>6</v>
       </c>
       <c r="K21" s="19"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="S21" s="29"/>
+      <c r="S21" s="28"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="19"/>
-      <c r="D22" s="22" t="s">
-        <v>18</v>
-      </c>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="28"/>
       <c r="K22" s="19"/>
       <c r="L22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="S22" s="29"/>
+      <c r="S22" s="28"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="27"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="28"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="26"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="Q23" s="32">
+      <c r="Q23" s="31">
         <v>1</v>
       </c>
-      <c r="R23" s="31"/>
+      <c r="R23" s="30"/>
       <c r="S23" s="18"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="L24" s="39" t="s">
+      <c r="H24" s="40"/>
+      <c r="I24" s="28"/>
+      <c r="L24" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="40"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="19"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="30"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="19"/>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="28" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="35" t="s">
+      <c r="M25" s="34" t="s">
         <v>9</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="39"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="19"/>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="18"/>
       <c r="L26" s="2">
         <v>1</v>
       </c>
@@ -1073,8 +1102,8 @@
         <v>11</v>
       </c>
       <c r="N26" s="19"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="28" t="s">
+      <c r="O26" s="32"/>
+      <c r="P26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="Q26" s="13" t="s">
@@ -1082,8 +1111,9 @@
       </c>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C27" s="19"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="1"/>
       <c r="L27" s="2">
         <v>2</v>
       </c>
@@ -1100,12 +1130,13 @@
       </c>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="1"/>
       <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="35" t="s">
         <v>12</v>
       </c>
       <c r="N28" s="19"/>
@@ -1118,8 +1149,9 @@
       </c>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="19"/>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="1"/>
@@ -1132,10 +1164,10 @@
       </c>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="21"/>
       <c r="G30" t="s">
         <v>18</v>
@@ -1146,19 +1178,19 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="39" t="s">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E31" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="34"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="33"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E32" s="13" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1209,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="37"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="36"/>
     </row>
     <row r="33" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
@@ -1186,12 +1218,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="40"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
@@ -1258,11 +1290,11 @@
   <mergeCells count="7">
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E20:I20"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Diagrama.xlsx
+++ b/Diagrama.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zfda8\Desktop\Carta-Restaurante\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Carta-Restaurante\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -120,12 +120,15 @@
   </si>
   <si>
     <t>eslogan</t>
+  </si>
+  <si>
+    <t>sucursal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -416,18 +419,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:U38"/>
+  <dimension ref="B5:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,22 +767,22 @@
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="1"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
       <c r="S9" s="33"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
@@ -915,7 +921,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="1"/>
       <c r="D17" s="19"/>
@@ -926,7 +932,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="1"/>
       <c r="D18" s="19"/>
@@ -937,13 +943,13 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="1"/>
       <c r="D19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -951,18 +957,19 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="37"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -970,7 +977,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="15" t="s">
         <v>0</v>
@@ -979,38 +986,42 @@
         <v>7</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="J21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="M21" s="8"/>
+      <c r="L21" s="19"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="1"/>
+      <c r="P21" s="8"/>
+      <c r="T21" s="28"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="28"/>
-      <c r="K22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="1">
         <v>1</v>
       </c>
@@ -1020,16 +1031,17 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="40"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="28"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="26"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1041,19 +1053,20 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="28"/>
-      <c r="L24" s="37" t="s">
+      <c r="J24" s="37"/>
+      <c r="L24" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="39"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="19"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1061,16 +1074,16 @@
       <c r="R24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="28"/>
       <c r="L25" s="27" t="s">
         <v>0</v>
@@ -1080,21 +1093,22 @@
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="37" t="s">
+      <c r="P25" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="39"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="18"/>
+      <c r="J26" s="38"/>
       <c r="L26" s="2">
         <v>1</v>
       </c>
@@ -1111,7 +1125,7 @@
       </c>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="1"/>
       <c r="L27" s="2">
@@ -1130,7 +1144,7 @@
       </c>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="1"/>
       <c r="L28" s="4">
@@ -1149,7 +1163,7 @@
       </c>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="L29" s="17"/>
@@ -1164,7 +1178,7 @@
       </c>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -1178,19 +1192,19 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="37" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="33"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E32" s="13" t="s">
         <v>0</v>
       </c>
@@ -1218,12 +1232,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="39"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
@@ -1294,7 +1308,7 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
